--- a/Code/Results/Cases/Case_3_116/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_116/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.046950868578676</v>
+        <v>1.443613805178813</v>
       </c>
       <c r="C2">
-        <v>1.180238224953882</v>
+        <v>0.5508010229219167</v>
       </c>
       <c r="D2">
-        <v>0.02620222280916806</v>
+        <v>0.08985838777794442</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.134794925566368</v>
+        <v>2.597802277714038</v>
       </c>
       <c r="G2">
-        <v>0.0007958508005413682</v>
+        <v>0.002515046553118214</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.856281928909425</v>
+        <v>1.183514997888679</v>
       </c>
       <c r="J2">
-        <v>0.1111236349461748</v>
+        <v>0.2112062533702854</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8908802436829433</v>
+        <v>0.6031615746933383</v>
       </c>
       <c r="N2">
-        <v>0.8528629021791048</v>
+        <v>1.731397487175229</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.63559860887591</v>
+        <v>1.340194044334282</v>
       </c>
       <c r="C3">
-        <v>1.020110175842376</v>
+        <v>0.511404890779886</v>
       </c>
       <c r="D3">
-        <v>0.02464429550341407</v>
+        <v>0.08968649554753583</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.954661032297935</v>
+        <v>2.571533506554303</v>
       </c>
       <c r="G3">
-        <v>0.0008042893937520273</v>
+        <v>0.002520348434799307</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8028847349067689</v>
+        <v>1.178859154891818</v>
       </c>
       <c r="J3">
-        <v>0.1053514554892061</v>
+        <v>0.2111375892942249</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7767743967153464</v>
+        <v>0.5769380355127041</v>
       </c>
       <c r="N3">
-        <v>0.9037522665667197</v>
+        <v>1.751163945221677</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.386681857894246</v>
+        <v>1.27745317462734</v>
       </c>
       <c r="C4">
-        <v>0.9235568354542636</v>
+        <v>0.4875346308964481</v>
       </c>
       <c r="D4">
-        <v>0.02370267878978183</v>
+        <v>0.08959376225058335</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.848961779264741</v>
+        <v>2.55699872763924</v>
       </c>
       <c r="G4">
-        <v>0.0008096083459444287</v>
+        <v>0.002523774712830032</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.7722973861231921</v>
+        <v>1.176722879374132</v>
       </c>
       <c r="J4">
-        <v>0.1020105169418315</v>
+        <v>0.2111891970457691</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7079422245839311</v>
+        <v>0.5611828721971435</v>
       </c>
       <c r="N4">
-        <v>0.9366557923903365</v>
+        <v>1.763951319431428</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.286036805457854</v>
+        <v>1.25207568098898</v>
       </c>
       <c r="C5">
-        <v>0.8845939705857973</v>
+        <v>0.4778868110935548</v>
       </c>
       <c r="D5">
-        <v>0.02332232548037183</v>
+        <v>0.08955921180413284</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.80700767143729</v>
+        <v>2.551475053909257</v>
       </c>
       <c r="G5">
-        <v>0.0008118121026373771</v>
+        <v>0.002525214071893922</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.7603385595037508</v>
+        <v>1.176033263448275</v>
       </c>
       <c r="J5">
-        <v>0.1006963696101479</v>
+        <v>0.2112337804331545</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6801633568861121</v>
+        <v>0.5548492861010317</v>
       </c>
       <c r="N5">
-        <v>0.9504617062099001</v>
+        <v>1.769325527606643</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.269368962434214</v>
+        <v>1.247873209404759</v>
       </c>
       <c r="C6">
-        <v>0.8781456983229248</v>
+        <v>0.4762895784399461</v>
       </c>
       <c r="D6">
-        <v>0.02325936048669419</v>
+        <v>0.08955367090288391</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.800105669818265</v>
+        <v>2.550581928032003</v>
       </c>
       <c r="G6">
-        <v>0.0008121802690566162</v>
+        <v>0.00252545568530518</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.7583820484327148</v>
+        <v>1.175929660066735</v>
       </c>
       <c r="J6">
-        <v>0.1004809091394563</v>
+        <v>0.2112426052649141</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6755659932073783</v>
+        <v>0.5538028316260579</v>
       </c>
       <c r="N6">
-        <v>0.9527776410297513</v>
+        <v>1.770227759852752</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.385321484772817</v>
+        <v>1.277110157213997</v>
       </c>
       <c r="C7">
-        <v>0.9230298926295575</v>
+        <v>0.4874041960808313</v>
       </c>
       <c r="D7">
-        <v>0.02369753608659053</v>
+        <v>0.08959328315092563</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.848391583542195</v>
+        <v>2.556922618483014</v>
       </c>
       <c r="G7">
-        <v>0.0008096379176551512</v>
+        <v>0.002523793949900964</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.7721341168207445</v>
+        <v>1.176712847352505</v>
       </c>
       <c r="J7">
-        <v>0.1019926071043997</v>
+        <v>0.2111897029820824</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7075665409091343</v>
+        <v>0.5610971042775645</v>
       </c>
       <c r="N7">
-        <v>0.9368403987307516</v>
+        <v>1.764023137401768</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.904276994462748</v>
+        <v>1.40779643464316</v>
       </c>
       <c r="C8">
-        <v>1.124621326394163</v>
+        <v>0.5371505400428873</v>
       </c>
       <c r="D8">
-        <v>0.02566168988161266</v>
+        <v>0.08979647144503033</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.071595353099212</v>
+        <v>2.588412946772337</v>
       </c>
       <c r="G8">
-        <v>0.0007987328897673416</v>
+        <v>0.002516839260849224</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.8373845857870563</v>
+        <v>1.181759278345851</v>
       </c>
       <c r="J8">
-        <v>0.1090888338293468</v>
+        <v>0.2111631001949306</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8512572890432182</v>
+        <v>0.5940476634124678</v>
       </c>
       <c r="N8">
-        <v>0.8700534724346554</v>
+        <v>1.738077688802072</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.957412605965374</v>
+        <v>1.670157353677496</v>
       </c>
       <c r="C9">
-        <v>1.537006698268442</v>
+        <v>0.637274322706503</v>
       </c>
       <c r="D9">
-        <v>0.02965301256939412</v>
+        <v>0.09029582579662332</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.553907526013347</v>
+        <v>2.662892806538508</v>
       </c>
       <c r="G9">
-        <v>0.0007783587094907546</v>
+        <v>0.002504550385137179</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.9851434708529041</v>
+        <v>1.197422566861363</v>
       </c>
       <c r="J9">
-        <v>0.1248058852135685</v>
+        <v>0.2118563729647249</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.144712454399112</v>
+        <v>0.6614276517381086</v>
       </c>
       <c r="N9">
-        <v>0.7531940429375013</v>
+        <v>1.692377655767622</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.762925428787071</v>
+        <v>1.866730667961178</v>
       </c>
       <c r="C10">
-        <v>1.85519907637854</v>
+        <v>0.7124655381932143</v>
       </c>
       <c r="D10">
-        <v>0.03270508884344636</v>
+        <v>0.09072332424761242</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.944390665027527</v>
+        <v>2.725489098771618</v>
       </c>
       <c r="G10">
-        <v>0.0007638790307892136</v>
+        <v>0.002496334782802112</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.109463506810926</v>
+        <v>1.21249813365921</v>
       </c>
       <c r="J10">
-        <v>0.1377465851911737</v>
+        <v>0.2128225400049431</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.370454229328772</v>
+        <v>0.7126468111133732</v>
       </c>
       <c r="N10">
-        <v>0.6774383652551208</v>
+        <v>1.661980067121675</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.138901000336546</v>
+        <v>1.957010555473175</v>
       </c>
       <c r="C11">
-        <v>2.004507752971108</v>
+        <v>0.7470401772769719</v>
       </c>
       <c r="D11">
-        <v>0.03412900215282377</v>
+        <v>0.09093079060955844</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.132189848883741</v>
+        <v>2.755702183580979</v>
       </c>
       <c r="G11">
-        <v>0.0007573655566622115</v>
+        <v>0.002492771805247574</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.170397842608494</v>
+        <v>1.22014264002361</v>
       </c>
       <c r="J11">
-        <v>0.144012263772467</v>
+        <v>0.2133618234464691</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.476133304249117</v>
+        <v>0.7363271480739115</v>
       </c>
       <c r="N11">
-        <v>0.6455589477389125</v>
+        <v>1.648846144778972</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.282898725842529</v>
+        <v>1.991322133945062</v>
       </c>
       <c r="C12">
-        <v>2.061824335834558</v>
+        <v>0.7601868689741309</v>
       </c>
       <c r="D12">
-        <v>0.03467426015761887</v>
+        <v>0.09101120567502718</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.204990373475113</v>
+        <v>2.767394954643407</v>
       </c>
       <c r="G12">
-        <v>0.0007549065143952587</v>
+        <v>0.002491447513188691</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.194194601007368</v>
+        <v>1.223151419603028</v>
       </c>
       <c r="J12">
-        <v>0.1464467221299515</v>
+        <v>0.2135804234291854</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.516656191207105</v>
+        <v>0.7453494442229101</v>
       </c>
       <c r="N12">
-        <v>0.6338966724544051</v>
+        <v>1.643972912215148</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.251809637169856</v>
+        <v>1.983926962857993</v>
       </c>
       <c r="C13">
-        <v>2.04944353776375</v>
+        <v>0.7573530771182959</v>
       </c>
       <c r="D13">
-        <v>0.03455654303071398</v>
+        <v>0.09099380474263796</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.189232650881792</v>
+        <v>2.7648654815859</v>
       </c>
       <c r="G13">
-        <v>0.0007554358345303376</v>
+        <v>0.0024917316166293</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.189035813808488</v>
+        <v>1.222498342292681</v>
       </c>
       <c r="J13">
-        <v>0.1459195434999643</v>
+        <v>0.2135327036101984</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.507905122099814</v>
+        <v>0.743403876483697</v>
       </c>
       <c r="N13">
-        <v>0.6363894572890914</v>
+        <v>1.645017981342271</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.150713669876268</v>
+        <v>1.959830886587383</v>
       </c>
       <c r="C14">
-        <v>2.009206905756855</v>
+        <v>0.7481206758088774</v>
       </c>
       <c r="D14">
-        <v>0.03417373353583741</v>
+        <v>0.09093736938120855</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.138144033249574</v>
+        <v>2.756659099121293</v>
       </c>
       <c r="G14">
-        <v>0.0007571631191848774</v>
+        <v>0.002492662355991656</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.17234056704612</v>
+        <v>1.220387884986565</v>
       </c>
       <c r="J14">
-        <v>0.1442112646486251</v>
+        <v>0.2133795192768204</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.479456570137572</v>
+        <v>0.7370683121328483</v>
       </c>
       <c r="N14">
-        <v>0.6445910335144376</v>
+        <v>1.648443208035957</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.089009006431866</v>
+        <v>1.945087599906969</v>
       </c>
       <c r="C15">
-        <v>1.984665818399435</v>
+        <v>0.74247262481299</v>
       </c>
       <c r="D15">
-        <v>0.03394007083371875</v>
+        <v>0.09090304179759912</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.10707736682221</v>
+        <v>2.751665291174788</v>
       </c>
       <c r="G15">
-        <v>0.0007582220050440559</v>
+        <v>0.002493235703605266</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.162211260660627</v>
+        <v>1.219110037203194</v>
       </c>
       <c r="J15">
-        <v>0.1431731734823529</v>
+        <v>0.2132875639656362</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.46209910821068</v>
+        <v>0.7331947779770616</v>
       </c>
       <c r="N15">
-        <v>0.6496693322491183</v>
+        <v>1.650554334805406</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.738567327404269</v>
+        <v>1.860848026619863</v>
       </c>
       <c r="C16">
-        <v>1.845543131695706</v>
+        <v>0.7102135176241973</v>
       </c>
       <c r="D16">
-        <v>0.03261282459531856</v>
+        <v>0.09071002589956478</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.932340516025931</v>
+        <v>2.723549727426388</v>
       </c>
       <c r="G16">
-        <v>0.0007643059238997552</v>
+        <v>0.00249657112815923</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.105577063876126</v>
+        <v>1.212014448391145</v>
       </c>
       <c r="J16">
-        <v>0.13734533490004</v>
+        <v>0.2127893074282952</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.363614151341991</v>
+        <v>0.7111069316819965</v>
       </c>
       <c r="N16">
-        <v>0.6795768886563351</v>
+        <v>1.662852408372913</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.526195724203887</v>
+        <v>1.809390303511691</v>
       </c>
       <c r="C17">
-        <v>1.761444919138739</v>
+        <v>0.6905189109876346</v>
       </c>
       <c r="D17">
-        <v>0.03180832113821097</v>
+        <v>0.09059493332641821</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.827898521593852</v>
+        <v>2.706748118083624</v>
       </c>
       <c r="G17">
-        <v>0.0007680549395435721</v>
+        <v>0.002498661856333187</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.072017654626606</v>
+        <v>1.207863602125869</v>
       </c>
       <c r="J17">
-        <v>0.1338720872272603</v>
+        <v>0.2125092234010282</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.304012301072106</v>
+        <v>0.6976544526579431</v>
       </c>
       <c r="N17">
-        <v>0.6986113139032639</v>
+        <v>1.670574997331983</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.404926590815137</v>
+        <v>1.779873838736989</v>
       </c>
       <c r="C18">
-        <v>1.713495052406245</v>
+        <v>0.6792258474801542</v>
       </c>
       <c r="D18">
-        <v>0.03134886888119937</v>
+        <v>0.09052995926108665</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.768768160663484</v>
+        <v>2.697247726673936</v>
       </c>
       <c r="G18">
-        <v>0.0007702183901652226</v>
+        <v>0.002499880805929498</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.05312127789314</v>
+        <v>1.20555012704169</v>
       </c>
       <c r="J18">
-        <v>0.1319095406679054</v>
+        <v>0.212357514867044</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.270007110057236</v>
+        <v>0.6899527337665177</v>
       </c>
       <c r="N18">
-        <v>0.7097998728166459</v>
+        <v>1.675082127843531</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.364011199811216</v>
+        <v>1.769893887510705</v>
       </c>
       <c r="C19">
-        <v>1.697328980864313</v>
+        <v>0.6754081534137413</v>
       </c>
       <c r="D19">
-        <v>0.03119384275001025</v>
+        <v>0.09050817091845076</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.748903091674435</v>
+        <v>2.694059074136419</v>
       </c>
       <c r="G19">
-        <v>0.0007709522071111338</v>
+        <v>0.002500296345615362</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.046790423988412</v>
+        <v>1.204779504406829</v>
       </c>
       <c r="J19">
-        <v>0.1312508900765081</v>
+        <v>0.212307760277433</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.258538856407043</v>
+        <v>0.6873512006684592</v>
       </c>
       <c r="N19">
-        <v>0.7136283385898281</v>
+        <v>1.676619365627381</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.54871010723997</v>
+        <v>1.81485970969311</v>
       </c>
       <c r="C20">
-        <v>1.770352903056164</v>
+        <v>0.6926118325224024</v>
       </c>
       <c r="D20">
-        <v>0.03189361641172539</v>
+        <v>0.09060705855458195</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.838917544680953</v>
+        <v>2.708519748332264</v>
       </c>
       <c r="G20">
-        <v>0.0007676551350438432</v>
+        <v>0.002498437596566205</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.07554745092574</v>
+        <v>1.208297803723028</v>
       </c>
       <c r="J20">
-        <v>0.1342381301832845</v>
+        <v>0.2125380668874044</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.310327921887563</v>
+        <v>0.6990827852327897</v>
       </c>
       <c r="N20">
-        <v>0.6965599182034765</v>
+        <v>1.6697461525739</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.180361756583693</v>
+        <v>1.96690509838794</v>
       </c>
       <c r="C21">
-        <v>2.021003255699327</v>
+        <v>0.7508309827408652</v>
       </c>
       <c r="D21">
-        <v>0.03428600132335546</v>
+        <v>0.09095389568091861</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.153102335761815</v>
+        <v>2.759062665768056</v>
       </c>
       <c r="G21">
-        <v>0.0007566555977255102</v>
+        <v>0.00249238829997586</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.177223964957165</v>
+        <v>1.221004677363041</v>
       </c>
       <c r="J21">
-        <v>0.1447112878066861</v>
+        <v>0.2134241225112845</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.487798259717991</v>
+        <v>0.738927723603183</v>
       </c>
       <c r="N21">
-        <v>0.6421705775523492</v>
+        <v>1.647434409906296</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.60279092901817</v>
+        <v>2.067002074598349</v>
       </c>
       <c r="C22">
-        <v>2.18941342657331</v>
+        <v>0.7891958762147624</v>
       </c>
       <c r="D22">
-        <v>0.03588540894397596</v>
+        <v>0.09119136153979568</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.368388772996184</v>
+        <v>2.793563547291342</v>
       </c>
       <c r="G22">
-        <v>0.0007495085556251377</v>
+        <v>0.002488579982937965</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.247937717120465</v>
+        <v>1.229974073527487</v>
       </c>
       <c r="J22">
-        <v>0.1519203348480076</v>
+        <v>0.2140870767658427</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.606768533479595</v>
+        <v>0.7652898352189652</v>
       </c>
       <c r="N22">
-        <v>0.6090343549168011</v>
+        <v>1.633437247335472</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.376360947315675</v>
+        <v>2.013511549362818</v>
       </c>
       <c r="C23">
-        <v>2.099064757582028</v>
+        <v>0.7686906735322623</v>
       </c>
       <c r="D23">
-        <v>0.03502813758295176</v>
+        <v>0.09106363986512989</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.252494038923885</v>
+        <v>2.775014821737898</v>
       </c>
       <c r="G23">
-        <v>0.0007533203739123461</v>
+        <v>0.0024905993093301</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.209772515115233</v>
+        <v>1.225125827147792</v>
       </c>
       <c r="J23">
-        <v>0.1480367293898439</v>
+        <v>0.2137255589156766</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.542971412288281</v>
+        <v>0.751190376213799</v>
       </c>
       <c r="N23">
-        <v>0.6264850742456716</v>
+        <v>1.640854118701235</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.538528800019492</v>
+        <v>1.812386781730538</v>
       </c>
       <c r="C24">
-        <v>1.766324368644575</v>
+        <v>0.6916655304755182</v>
       </c>
       <c r="D24">
-        <v>0.03185504493313829</v>
+        <v>0.09060157301775718</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.833933011621752</v>
+        <v>2.707718298944997</v>
       </c>
       <c r="G24">
-        <v>0.00076783586121718</v>
+        <v>0.002498538931554446</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.073950399100994</v>
+        <v>1.208101274173586</v>
       </c>
       <c r="J24">
-        <v>0.1340725359588291</v>
+        <v>0.2125249977346897</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.30747182319638</v>
+        <v>0.6984369355244411</v>
       </c>
       <c r="N24">
-        <v>0.6974865926290548</v>
+        <v>1.670120663666495</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.667737201565899</v>
+        <v>1.598519349572427</v>
       </c>
       <c r="C25">
-        <v>1.423156596394506</v>
+        <v>0.6099064769820757</v>
       </c>
       <c r="D25">
-        <v>0.02855506051506396</v>
+        <v>0.09015002821531581</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.417793905437748</v>
+        <v>2.641369480317863</v>
       </c>
       <c r="G25">
-        <v>0.0007837745360745008</v>
+        <v>0.002507731389988577</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.942695772508884</v>
+        <v>1.192562485543945</v>
       </c>
       <c r="J25">
-        <v>0.1203326924034158</v>
+        <v>0.2115887777677443</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.063783958461009</v>
+        <v>0.6429006001094706</v>
       </c>
       <c r="N25">
-        <v>0.783153257707589</v>
+        <v>1.704184144849677</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_116/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_116/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.443613805178813</v>
+        <v>3.04695086857879</v>
       </c>
       <c r="C2">
-        <v>0.5508010229219167</v>
+        <v>1.180238224953996</v>
       </c>
       <c r="D2">
-        <v>0.08985838777794442</v>
+        <v>0.02620222280916096</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.597802277714038</v>
+        <v>2.134794925566354</v>
       </c>
       <c r="G2">
-        <v>0.002515046553118214</v>
+        <v>0.0007958508005890922</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.183514997888679</v>
+        <v>0.8562819289094108</v>
       </c>
       <c r="J2">
-        <v>0.2112062533702854</v>
+        <v>0.1111236349462033</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6031615746933383</v>
+        <v>0.8908802436829433</v>
       </c>
       <c r="N2">
-        <v>1.731397487175229</v>
+        <v>0.8528629021790621</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.340194044334282</v>
+        <v>2.63559860887591</v>
       </c>
       <c r="C3">
-        <v>0.511404890779886</v>
+        <v>1.020110175842376</v>
       </c>
       <c r="D3">
-        <v>0.08968649554753583</v>
+        <v>0.02464429550328617</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.571533506554303</v>
+        <v>1.954661032297949</v>
       </c>
       <c r="G3">
-        <v>0.002520348434799307</v>
+        <v>0.0008042893938264342</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.178859154891818</v>
+        <v>0.8028847349067689</v>
       </c>
       <c r="J3">
-        <v>0.2111375892942249</v>
+        <v>0.1053514554891919</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5769380355127041</v>
+        <v>0.7767743967153393</v>
       </c>
       <c r="N3">
-        <v>1.751163945221677</v>
+        <v>0.9037522665666913</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.27745317462734</v>
+        <v>2.386681857894189</v>
       </c>
       <c r="C4">
-        <v>0.4875346308964481</v>
+        <v>0.9235568354542067</v>
       </c>
       <c r="D4">
-        <v>0.08959376225058335</v>
+        <v>0.02370267878986709</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.55699872763924</v>
+        <v>1.848961779264741</v>
       </c>
       <c r="G4">
-        <v>0.002523774712830032</v>
+        <v>0.0008096083458691027</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.176722879374132</v>
+        <v>0.7722973861231779</v>
       </c>
       <c r="J4">
-        <v>0.2111891970457691</v>
+        <v>0.1020105169417604</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5611828721971435</v>
+        <v>0.7079422245839169</v>
       </c>
       <c r="N4">
-        <v>1.763951319431428</v>
+        <v>0.936655792390372</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.25207568098898</v>
+        <v>2.286036805457798</v>
       </c>
       <c r="C5">
-        <v>0.4778868110935548</v>
+        <v>0.8845939705856551</v>
       </c>
       <c r="D5">
-        <v>0.08955921180413284</v>
+        <v>0.02332232548024749</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.551475053909257</v>
+        <v>1.807007671437304</v>
       </c>
       <c r="G5">
-        <v>0.002525214071893922</v>
+        <v>0.000811812102678961</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.176033263448275</v>
+        <v>0.7603385595037437</v>
       </c>
       <c r="J5">
-        <v>0.2112337804331545</v>
+        <v>0.1006963696101764</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5548492861010317</v>
+        <v>0.680163356886105</v>
       </c>
       <c r="N5">
-        <v>1.769325527606643</v>
+        <v>0.9504617062098752</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.247873209404759</v>
+        <v>2.269368962434442</v>
       </c>
       <c r="C6">
-        <v>0.4762895784399461</v>
+        <v>0.8781456983230669</v>
       </c>
       <c r="D6">
-        <v>0.08955367090288391</v>
+        <v>0.02325936048667998</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.550581928032003</v>
+        <v>1.800105669818237</v>
       </c>
       <c r="G6">
-        <v>0.00252545568530518</v>
+        <v>0.0008121802690533864</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.175929660066735</v>
+        <v>0.7583820484327148</v>
       </c>
       <c r="J6">
-        <v>0.2112426052649141</v>
+        <v>0.1004809091394776</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5538028316260579</v>
+        <v>0.675565993207357</v>
       </c>
       <c r="N6">
-        <v>1.770227759852752</v>
+        <v>0.9527776410297939</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.277110157213997</v>
+        <v>2.38532148477276</v>
       </c>
       <c r="C7">
-        <v>0.4874041960808313</v>
+        <v>0.9230298926293869</v>
       </c>
       <c r="D7">
-        <v>0.08959328315092563</v>
+        <v>0.02369753608652658</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.556922618483014</v>
+        <v>1.848391583542195</v>
       </c>
       <c r="G7">
-        <v>0.002523793949900964</v>
+        <v>0.0008096379176547623</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.176712847352505</v>
+        <v>0.7721341168207445</v>
       </c>
       <c r="J7">
-        <v>0.2111897029820824</v>
+        <v>0.1019926071043997</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5610971042775645</v>
+        <v>0.707566540909113</v>
       </c>
       <c r="N7">
-        <v>1.764023137401768</v>
+        <v>0.9368403987307516</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.40779643464316</v>
+        <v>2.904276994462691</v>
       </c>
       <c r="C8">
-        <v>0.5371505400428873</v>
+        <v>1.124621326393878</v>
       </c>
       <c r="D8">
-        <v>0.08979647144503033</v>
+        <v>0.02566168988148831</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.588412946772337</v>
+        <v>2.071595353099198</v>
       </c>
       <c r="G8">
-        <v>0.002516839260849224</v>
+        <v>0.0007987328897661435</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.181759278345851</v>
+        <v>0.8373845857870634</v>
       </c>
       <c r="J8">
-        <v>0.2111631001949306</v>
+        <v>0.1090888338293325</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5940476634124678</v>
+        <v>0.8512572890432182</v>
       </c>
       <c r="N8">
-        <v>1.738077688802072</v>
+        <v>0.8700534724346483</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.670157353677496</v>
+        <v>3.957412605965374</v>
       </c>
       <c r="C9">
-        <v>0.637274322706503</v>
+        <v>1.537006698268385</v>
       </c>
       <c r="D9">
-        <v>0.09029582579662332</v>
+        <v>0.02965301256926622</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.662892806538508</v>
+        <v>2.553907526013376</v>
       </c>
       <c r="G9">
-        <v>0.002504550385137179</v>
+        <v>0.0007783587094316945</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.197422566861363</v>
+        <v>0.9851434708529183</v>
       </c>
       <c r="J9">
-        <v>0.2118563729647249</v>
+        <v>0.1248058852134903</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.6614276517381086</v>
+        <v>1.144712454399112</v>
       </c>
       <c r="N9">
-        <v>1.692377655767622</v>
+        <v>0.7531940429375013</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.866730667961178</v>
+        <v>4.762925428787014</v>
       </c>
       <c r="C10">
-        <v>0.7124655381932143</v>
+        <v>1.85519907637854</v>
       </c>
       <c r="D10">
-        <v>0.09072332424761242</v>
+        <v>0.03270508884344636</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.725489098771618</v>
+        <v>2.944390665027527</v>
       </c>
       <c r="G10">
-        <v>0.002496334782802112</v>
+        <v>0.0007638790307893808</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.21249813365921</v>
+        <v>1.10946350681094</v>
       </c>
       <c r="J10">
-        <v>0.2128225400049431</v>
+        <v>0.1377465851913584</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.7126468111133732</v>
+        <v>1.370454229328772</v>
       </c>
       <c r="N10">
-        <v>1.661980067121675</v>
+        <v>0.6774383652551208</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.957010555473175</v>
+        <v>5.138901000336602</v>
       </c>
       <c r="C11">
-        <v>0.7470401772769719</v>
+        <v>2.004507752971335</v>
       </c>
       <c r="D11">
-        <v>0.09093079060955844</v>
+        <v>0.03412900215316128</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.755702183580979</v>
+        <v>3.132189848883741</v>
       </c>
       <c r="G11">
-        <v>0.002492771805247574</v>
+        <v>0.0007573655567204982</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.22014264002361</v>
+        <v>1.170397842608494</v>
       </c>
       <c r="J11">
-        <v>0.2133618234464691</v>
+        <v>0.1440122637723604</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.7363271480739115</v>
+        <v>1.476133304249117</v>
       </c>
       <c r="N11">
-        <v>1.648846144778972</v>
+        <v>0.6455589477389694</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.991322133945062</v>
+        <v>5.282898725842415</v>
       </c>
       <c r="C12">
-        <v>0.7601868689741309</v>
+        <v>2.06182433583416</v>
       </c>
       <c r="D12">
-        <v>0.09101120567502718</v>
+        <v>0.03467426015761887</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.767394954643407</v>
+        <v>3.204990373475141</v>
       </c>
       <c r="G12">
-        <v>0.002491447513188691</v>
+        <v>0.0007549065144503257</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.223151419603028</v>
+        <v>1.194194601007382</v>
       </c>
       <c r="J12">
-        <v>0.2135804234291854</v>
+        <v>0.146446722129987</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.7453494442229101</v>
+        <v>1.51665619120709</v>
       </c>
       <c r="N12">
-        <v>1.643972912215148</v>
+        <v>0.633896672454398</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.983926962857993</v>
+        <v>5.251809637170027</v>
       </c>
       <c r="C13">
-        <v>0.7573530771182959</v>
+        <v>2.04944353776375</v>
       </c>
       <c r="D13">
-        <v>0.09099380474263796</v>
+        <v>0.03455654303068911</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.7648654815859</v>
+        <v>3.189232650881792</v>
       </c>
       <c r="G13">
-        <v>0.0024917316166293</v>
+        <v>0.0007554358345326621</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.222498342292681</v>
+        <v>1.189035813808502</v>
       </c>
       <c r="J13">
-        <v>0.2135327036101984</v>
+        <v>0.1459195434999998</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.743403876483697</v>
+        <v>1.5079051220998</v>
       </c>
       <c r="N13">
-        <v>1.645017981342271</v>
+        <v>0.6363894572891269</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.959830886587383</v>
+        <v>5.150713669876325</v>
       </c>
       <c r="C14">
-        <v>0.7481206758088774</v>
+        <v>2.009206905756912</v>
       </c>
       <c r="D14">
-        <v>0.09093736938120855</v>
+        <v>0.03417373353606123</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.756659099121293</v>
+        <v>3.138144033249517</v>
       </c>
       <c r="G14">
-        <v>0.002492662355991656</v>
+        <v>0.0007571631190675217</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.220387884986565</v>
+        <v>1.172340567046106</v>
       </c>
       <c r="J14">
-        <v>0.2133795192768204</v>
+        <v>0.1442112646487317</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.7370683121328483</v>
+        <v>1.479456570137572</v>
       </c>
       <c r="N14">
-        <v>1.648443208035957</v>
+        <v>0.6445910335144305</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.945087599906969</v>
+        <v>5.089009006431979</v>
       </c>
       <c r="C15">
-        <v>0.74247262481299</v>
+        <v>1.984665818399435</v>
       </c>
       <c r="D15">
-        <v>0.09090304179759912</v>
+        <v>0.03394007083371164</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.751665291174788</v>
+        <v>3.107077366822182</v>
       </c>
       <c r="G15">
-        <v>0.002493235703605266</v>
+        <v>0.0007582220051016674</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.219110037203194</v>
+        <v>1.162211260660612</v>
       </c>
       <c r="J15">
-        <v>0.2132875639656362</v>
+        <v>0.1431731734824595</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.7331947779770616</v>
+        <v>1.462099108210708</v>
       </c>
       <c r="N15">
-        <v>1.650554334805406</v>
+        <v>0.6496693322491609</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.860848026619863</v>
+        <v>4.738567327404269</v>
       </c>
       <c r="C16">
-        <v>0.7102135176241973</v>
+        <v>1.845543131695933</v>
       </c>
       <c r="D16">
-        <v>0.09071002589956478</v>
+        <v>0.03261282459506987</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.723549727426388</v>
+        <v>2.93234051602596</v>
       </c>
       <c r="G16">
-        <v>0.00249657112815923</v>
+        <v>0.0007643059239540193</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.212014448391145</v>
+        <v>1.10557706387614</v>
       </c>
       <c r="J16">
-        <v>0.2127893074282952</v>
+        <v>0.1373453349000826</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.7111069316819965</v>
+        <v>1.363614151341963</v>
       </c>
       <c r="N16">
-        <v>1.662852408372913</v>
+        <v>0.679576888656328</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.809390303511691</v>
+        <v>4.526195724204058</v>
       </c>
       <c r="C17">
-        <v>0.6905189109876346</v>
+        <v>1.761444919138512</v>
       </c>
       <c r="D17">
-        <v>0.09059493332641821</v>
+        <v>0.03180832113808307</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.706748118083624</v>
+        <v>2.827898521593852</v>
       </c>
       <c r="G17">
-        <v>0.002498661856333187</v>
+        <v>0.0007680549394841937</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.207863602125869</v>
+        <v>1.072017654626606</v>
       </c>
       <c r="J17">
-        <v>0.2125092234010282</v>
+        <v>0.1338720872273029</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6976544526579431</v>
+        <v>1.304012301072106</v>
       </c>
       <c r="N17">
-        <v>1.670574997331983</v>
+        <v>0.6986113139032355</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.779873838736989</v>
+        <v>4.404926590815023</v>
       </c>
       <c r="C18">
-        <v>0.6792258474801542</v>
+        <v>1.713495052406302</v>
       </c>
       <c r="D18">
-        <v>0.09052995926108665</v>
+        <v>0.0313488688813095</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.697247726673936</v>
+        <v>2.768768160663484</v>
       </c>
       <c r="G18">
-        <v>0.002499880805929498</v>
+        <v>0.0007702183901643345</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.20555012704169</v>
+        <v>1.05312127789314</v>
       </c>
       <c r="J18">
-        <v>0.212357514867044</v>
+        <v>0.1319095406679409</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6899527337665177</v>
+        <v>1.270007110057236</v>
       </c>
       <c r="N18">
-        <v>1.675082127843531</v>
+        <v>0.7097998728166388</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.769893887510705</v>
+        <v>4.364011199811216</v>
       </c>
       <c r="C19">
-        <v>0.6754081534137413</v>
+        <v>1.697328980864086</v>
       </c>
       <c r="D19">
-        <v>0.09050817091845076</v>
+        <v>0.03119384275013459</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.694059074136419</v>
+        <v>2.748903091674435</v>
       </c>
       <c r="G19">
-        <v>0.002500296345615362</v>
+        <v>0.0007709522071113676</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.204779504406829</v>
+        <v>1.046790423988426</v>
       </c>
       <c r="J19">
-        <v>0.212307760277433</v>
+        <v>0.1312508900764513</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6873512006684592</v>
+        <v>1.258538856407057</v>
       </c>
       <c r="N19">
-        <v>1.676619365627381</v>
+        <v>0.7136283385897713</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.81485970969311</v>
+        <v>4.548710107240083</v>
       </c>
       <c r="C20">
-        <v>0.6926118325224024</v>
+        <v>1.770352903056164</v>
       </c>
       <c r="D20">
-        <v>0.09060705855458195</v>
+        <v>0.03189361641183552</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.708519748332264</v>
+        <v>2.83891754468101</v>
       </c>
       <c r="G20">
-        <v>0.002498437596566205</v>
+        <v>0.0007676551350420813</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.208297803723028</v>
+        <v>1.075547450925754</v>
       </c>
       <c r="J20">
-        <v>0.2125380668874044</v>
+        <v>0.1342381301831992</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6990827852327897</v>
+        <v>1.310327921887549</v>
       </c>
       <c r="N20">
-        <v>1.6697461525739</v>
+        <v>0.6965599182034765</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.96690509838794</v>
+        <v>5.180361756583579</v>
       </c>
       <c r="C21">
-        <v>0.7508309827408652</v>
+        <v>2.021003255699611</v>
       </c>
       <c r="D21">
-        <v>0.09095389568091861</v>
+        <v>0.03428600132345494</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.759062665768056</v>
+        <v>3.153102335761844</v>
       </c>
       <c r="G21">
-        <v>0.00249238829997586</v>
+        <v>0.0007566555978409034</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.221004677363041</v>
+        <v>1.177223964957179</v>
       </c>
       <c r="J21">
-        <v>0.2134241225112845</v>
+        <v>0.14471128780675</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.738927723603183</v>
+        <v>1.487798259718005</v>
       </c>
       <c r="N21">
-        <v>1.647434409906296</v>
+        <v>0.6421705775523492</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.067002074598349</v>
+        <v>5.602790929018056</v>
       </c>
       <c r="C22">
-        <v>0.7891958762147624</v>
+        <v>2.189413426573253</v>
       </c>
       <c r="D22">
-        <v>0.09119136153979568</v>
+        <v>0.03588540894399372</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.793563547291342</v>
+        <v>3.368388772996155</v>
       </c>
       <c r="G22">
-        <v>0.002488579982937965</v>
+        <v>0.0007495085556808346</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.229974073527487</v>
+        <v>1.247937717120465</v>
       </c>
       <c r="J22">
-        <v>0.2140870767658427</v>
+        <v>0.1519203348479436</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7652898352189652</v>
+        <v>1.606768533479581</v>
       </c>
       <c r="N22">
-        <v>1.633437247335472</v>
+        <v>0.609034354916794</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.013511549362818</v>
+        <v>5.376360947315561</v>
       </c>
       <c r="C23">
-        <v>0.7686906735322623</v>
+        <v>2.099064757582084</v>
       </c>
       <c r="D23">
-        <v>0.09106363986512989</v>
+        <v>0.03502813758295531</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.775014821737898</v>
+        <v>3.252494038923885</v>
       </c>
       <c r="G23">
-        <v>0.0024905993093301</v>
+        <v>0.000753320373852847</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.225125827147792</v>
+        <v>1.209772515115247</v>
       </c>
       <c r="J23">
-        <v>0.2137255589156766</v>
+        <v>0.1480367293898013</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.751190376213799</v>
+        <v>1.542971412288296</v>
       </c>
       <c r="N23">
-        <v>1.640854118701235</v>
+        <v>0.6264850742456858</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.812386781730538</v>
+        <v>4.538528800019549</v>
       </c>
       <c r="C24">
-        <v>0.6916655304755182</v>
+        <v>1.766324368644348</v>
       </c>
       <c r="D24">
-        <v>0.09060157301775718</v>
+        <v>0.03185504493313474</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.707718298944997</v>
+        <v>2.833933011621752</v>
       </c>
       <c r="G24">
-        <v>0.002498538931554446</v>
+        <v>0.0007678358612181129</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.208101274173586</v>
+        <v>1.07395039910098</v>
       </c>
       <c r="J24">
-        <v>0.2125249977346897</v>
+        <v>0.134072535958957</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6984369355244411</v>
+        <v>1.30747182319638</v>
       </c>
       <c r="N24">
-        <v>1.670120663666495</v>
+        <v>0.697486592629005</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.598519349572427</v>
+        <v>3.667737201566013</v>
       </c>
       <c r="C25">
-        <v>0.6099064769820757</v>
+        <v>1.423156596394222</v>
       </c>
       <c r="D25">
-        <v>0.09015002821531581</v>
+        <v>0.02855506051493251</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.641369480317863</v>
+        <v>2.417793905437776</v>
       </c>
       <c r="G25">
-        <v>0.002507731389988577</v>
+        <v>0.0007837745361235493</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.192562485543945</v>
+        <v>0.942695772508884</v>
       </c>
       <c r="J25">
-        <v>0.2115887777677443</v>
+        <v>0.1203326924033732</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6429006001094706</v>
+        <v>1.063783958461023</v>
       </c>
       <c r="N25">
-        <v>1.704184144849677</v>
+        <v>0.7831532577076175</v>
       </c>
       <c r="O25">
         <v>0</v>
